--- a/data/city_tax_settlement_status_r2/0097.xlsx
+++ b/data/city_tax_settlement_status_r2/0097.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\納税課\02 管理職\03 税制係\オープンデータ\R5\01_データの更新\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\File01\納税課\03 税制係\（整理中）参考保存 ※現在は使用していないもの\オープンデータ\R6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E832D7F9-3DC1-41EF-A6CC-F4B7EADD1C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7125"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>#property</t>
   </si>
@@ -99,9 +100,6 @@
     <t>償却資産</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -174,17 +172,20 @@
     <t>現年課税分滞納繰越分</t>
   </si>
   <si>
-    <t>令和4年度</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>令和5年度</t>
+  </si>
+  <si>
+    <t>令和5年度</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.0;[Red]\-#,##0.0"/>
   </numFmts>
@@ -235,7 +236,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -581,29 +582,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" customWidth="1"/>
+    <col min="6" max="6" width="20.19921875" customWidth="1"/>
+    <col min="7" max="7" width="16.8984375" customWidth="1"/>
+    <col min="8" max="8" width="19.3984375" customWidth="1"/>
+    <col min="9" max="9" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -638,12 +639,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -655,25 +656,25 @@
         <v>14</v>
       </c>
       <c r="F2" s="1">
-        <v>24355687765</v>
+        <v>24699660604</v>
       </c>
       <c r="G2" s="1">
-        <v>24156236595</v>
+        <v>24502700421</v>
       </c>
       <c r="H2" s="1">
-        <v>14828</v>
+        <v>1917876</v>
       </c>
       <c r="I2" s="1">
-        <v>210421145</v>
+        <v>202470148</v>
       </c>
       <c r="J2" s="2">
         <v>99.181089969930483</v>
       </c>
       <c r="K2" s="2">
-        <v>100.65716942986695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -690,25 +691,25 @@
         <v>16</v>
       </c>
       <c r="F3" s="1">
-        <v>547644012</v>
+        <v>549194597</v>
       </c>
       <c r="G3" s="1">
-        <v>187698373</v>
+        <v>186574140</v>
       </c>
       <c r="H3" s="1">
-        <v>23335720</v>
+        <v>28903205</v>
       </c>
       <c r="I3" s="1">
-        <v>336609919</v>
+        <v>333945870</v>
       </c>
       <c r="J3" s="2">
-        <v>34.273792625710293</v>
+        <v>34</v>
       </c>
       <c r="K3" s="2">
-        <v>98.295035057984862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -725,25 +726,25 @@
         <v>14</v>
       </c>
       <c r="F4" s="1">
-        <v>6970736400</v>
+        <v>6572491300</v>
       </c>
       <c r="G4" s="1">
-        <v>6954213700</v>
+        <v>6545925632</v>
       </c>
       <c r="H4" s="1">
-        <v>52000</v>
+        <v>160000</v>
       </c>
       <c r="I4" s="1">
-        <v>16470700</v>
+        <v>26405668</v>
       </c>
       <c r="J4" s="2">
-        <v>99.76297052345862</v>
+        <v>99.6</v>
       </c>
       <c r="K4" s="2">
-        <v>100.65421276734969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -760,25 +761,25 @@
         <v>16</v>
       </c>
       <c r="F5" s="1">
-        <v>70305116</v>
+        <v>58868576</v>
       </c>
       <c r="G5" s="1">
-        <v>14116597</v>
+        <v>10738014</v>
       </c>
       <c r="H5" s="1">
-        <v>14261943</v>
+        <v>4729309</v>
       </c>
       <c r="I5" s="1">
-        <v>42446476</v>
+        <v>43551553</v>
       </c>
       <c r="J5" s="2">
-        <v>20.079046594560772</v>
+        <v>18.2</v>
       </c>
       <c r="K5" s="2">
-        <v>22.281947079488415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -795,25 +796,25 @@
         <v>14</v>
       </c>
       <c r="F6" s="1">
-        <v>23375612900</v>
+        <v>23799769900</v>
       </c>
       <c r="G6" s="1">
-        <v>23153733534</v>
+        <v>23601407402</v>
       </c>
       <c r="H6" s="1">
-        <v>6716100</v>
+        <v>5598500</v>
       </c>
       <c r="I6" s="1">
-        <v>215163266</v>
+        <v>193988898</v>
       </c>
       <c r="J6" s="2">
-        <v>99.050808349072213</v>
+        <v>99.2</v>
       </c>
       <c r="K6" s="2">
-        <v>103.95732723057797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -830,25 +831,25 @@
         <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>759245485</v>
+        <v>729318186</v>
       </c>
       <c r="G7" s="1">
-        <v>194531289</v>
+        <v>187750389</v>
       </c>
       <c r="H7" s="1">
-        <v>52461292</v>
+        <v>78750568</v>
       </c>
       <c r="I7" s="1">
-        <v>515817526</v>
+        <v>462911218</v>
       </c>
       <c r="J7" s="2">
-        <v>25.62165898161383</v>
+        <v>25.7</v>
       </c>
       <c r="K7" s="2">
-        <v>46.249751869573743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -865,27 +866,27 @@
         <v>14</v>
       </c>
       <c r="F8" s="1">
-        <v>3487432300</v>
+        <v>3435696600</v>
       </c>
       <c r="G8" s="1">
-        <v>3485326100</v>
+        <v>3433850000</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2792400</v>
+        <v>2200100</v>
       </c>
       <c r="J8" s="2">
         <v>99.939605996079123</v>
       </c>
       <c r="K8" s="2">
-        <v>103.71279380112026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
@@ -900,27 +901,27 @@
         <v>16</v>
       </c>
       <c r="F9" s="1">
-        <v>10453390</v>
+        <v>8349000</v>
       </c>
       <c r="G9" s="1">
-        <v>4300590</v>
+        <v>2723742</v>
       </c>
       <c r="H9" s="1">
-        <v>616200</v>
+        <v>721400</v>
       </c>
       <c r="I9" s="1">
-        <v>5556600</v>
+        <v>4903858</v>
       </c>
       <c r="J9" s="2">
-        <v>41.140625194314957</v>
+        <v>32.6</v>
       </c>
       <c r="K9" s="2">
-        <v>5.3129074549063366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>63.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
@@ -929,19 +930,19 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="1">
-        <v>258038600</v>
+        <v>258988200</v>
       </c>
       <c r="G10" s="1">
-        <v>258038600</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>258988200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -950,65 +951,65 @@
         <v>100</v>
       </c>
       <c r="K10" s="2">
-        <v>99.756406554020643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="1">
-        <v>1290421600</v>
+        <v>1328767100</v>
       </c>
       <c r="G11" s="1">
-        <v>1270687304</v>
+        <v>1310135633</v>
       </c>
       <c r="H11" s="1">
-        <v>6000</v>
+        <v>70800</v>
       </c>
       <c r="I11" s="1">
-        <v>19827096</v>
+        <v>18664639</v>
       </c>
       <c r="J11" s="2">
-        <v>98.470709417759281</v>
+        <v>98.6</v>
       </c>
       <c r="K11" s="2">
-        <v>104.1087024217954</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>103.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="1">
-        <v>58690000</v>
+        <v>57935400</v>
       </c>
       <c r="G12" s="1">
-        <v>58690000</v>
+        <v>57935400</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1020,91 +1021,91 @@
         <v>100</v>
       </c>
       <c r="K12" s="2">
-        <v>159.15241643752407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="1">
-        <v>60829316</v>
+        <v>59000321</v>
       </c>
       <c r="G13" s="1">
-        <v>15988669</v>
+        <v>14527831</v>
       </c>
       <c r="H13" s="1">
-        <v>5238322</v>
+        <v>5851257</v>
       </c>
       <c r="I13" s="1">
-        <v>39731325</v>
+        <v>38628105</v>
       </c>
       <c r="J13" s="2">
-        <v>26.284479345452443</v>
+        <v>24.6</v>
       </c>
       <c r="K13" s="2">
-        <v>102.77949430464848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="1">
-        <v>2981363461</v>
+        <v>2997969112</v>
       </c>
       <c r="G14" s="1">
-        <v>2981363461</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>26</v>
+        <v>2997969112</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
       </c>
       <c r="J14" s="2">
         <v>100</v>
       </c>
       <c r="K14" s="2">
-        <v>107.09592847049487</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1115,43 +1116,43 @@
       <c r="G15" s="1">
         <v>0</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>26</v>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="1">
-        <v>26566800</v>
+        <v>30957300</v>
       </c>
       <c r="G16" s="1">
-        <v>26566800</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>26</v>
+        <v>30957300</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
@@ -1160,21 +1161,21 @@
         <v>100</v>
       </c>
       <c r="K16" s="2">
-        <v>149.52469396369776</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1185,200 +1186,200 @@
       <c r="G17" s="1">
         <v>0</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
+      <c r="H17" s="1">
+        <v>7650</v>
       </c>
       <c r="I17" s="1">
-        <v>7650</v>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="1">
-        <v>2391248200</v>
+        <v>2346296600</v>
       </c>
       <c r="G18" s="1">
-        <v>2378795200</v>
+        <v>2343742400</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>14979400</v>
+        <v>2554200</v>
       </c>
       <c r="J18" s="2">
-        <v>99.479225954043585</v>
+        <v>99.9</v>
       </c>
       <c r="K18" s="2">
-        <v>100.7662861996031</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="1">
-        <v>42008200</v>
+        <v>33460900</v>
       </c>
       <c r="G19" s="1">
-        <v>15658400</v>
+        <v>5254100</v>
       </c>
       <c r="H19" s="1">
-        <v>7721100</v>
+        <v>9404200</v>
       </c>
       <c r="I19" s="1">
-        <v>18628700</v>
+        <v>18802600</v>
       </c>
       <c r="J19" s="2">
-        <v>37.274627334663236</v>
+        <v>15.7</v>
       </c>
       <c r="K19" s="2">
-        <v>25.441576694044336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
       <c r="D20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="1">
-        <v>65195798026</v>
+        <v>65528532116</v>
       </c>
       <c r="G20" s="1">
-        <v>64723651294</v>
+        <v>65083611500</v>
       </c>
       <c r="H20" s="1">
-        <v>6788928</v>
+        <v>7747176</v>
       </c>
       <c r="I20" s="1">
-        <v>479654007</v>
+        <v>446283653</v>
       </c>
       <c r="J20" s="2">
         <v>99.275801897828273</v>
       </c>
       <c r="K20" s="2">
-        <v>102.38035056684795</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+        <v>100.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" s="1">
-        <v>1490493169</v>
+        <v>1438199230</v>
       </c>
       <c r="G21" s="1">
-        <v>432293918</v>
+        <v>407568216</v>
       </c>
       <c r="H21" s="1">
-        <v>103634577</v>
+        <v>128367589</v>
       </c>
       <c r="I21" s="1">
-        <v>958798196</v>
+        <v>902743204</v>
       </c>
       <c r="J21" s="2">
-        <v>29.003414909310465</v>
+        <v>28.3</v>
       </c>
       <c r="K21" s="2">
-        <v>51.898035150081725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" s="1">
-        <v>66686291195</v>
+        <v>66966731346</v>
       </c>
       <c r="G22" s="1">
-        <v>65155945212</v>
+        <v>65491179716</v>
       </c>
       <c r="H22" s="1">
-        <v>110423505</v>
+        <v>136114765</v>
       </c>
       <c r="I22" s="1">
-        <v>1438452203</v>
+        <v>1349026857</v>
       </c>
       <c r="J22" s="2">
-        <v>97.705156553803448</v>
+        <v>97.8</v>
       </c>
       <c r="K22" s="2">
-        <v>101.72384833353729</v>
+        <v>100.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:K1 A3:A22 A2 C2:E2 C20:E22 C3:E3 C4:E5 C6:E7 C8:E9 C10:E10 H10 C11:E13 C14:E15 H14:I15 C16:E17 H16:H17 C18:E19" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:K1 A3:A22 A2 C2:E2 C20:E22 C3:E3 C4:E5 C6:E7 C8:E9 C10:E10 C11:E13 C14:E15 C16:E17 C18:E19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>